--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>712.3833042445888</v>
+        <v>761.1657066993017</v>
       </c>
       <c r="AB2" t="n">
-        <v>974.7142650007445</v>
+        <v>1041.460500166989</v>
       </c>
       <c r="AC2" t="n">
-        <v>881.6889035691355</v>
+        <v>942.0649717300432</v>
       </c>
       <c r="AD2" t="n">
-        <v>712383.3042445888</v>
+        <v>761165.7066993017</v>
       </c>
       <c r="AE2" t="n">
-        <v>974714.2650007445</v>
+        <v>1041460.500166989</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.972211575445418e-06</v>
+        <v>3.64910776802209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.705208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>881688.9035691355</v>
+        <v>942064.9717300432</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.3180967089819</v>
+        <v>288.6240465903176</v>
       </c>
       <c r="AB3" t="n">
-        <v>361.6516808086724</v>
+        <v>394.9081537391454</v>
       </c>
       <c r="AC3" t="n">
-        <v>327.1361519736139</v>
+        <v>357.2186738033555</v>
       </c>
       <c r="AD3" t="n">
-        <v>264318.0967089819</v>
+        <v>288624.0465903176</v>
       </c>
       <c r="AE3" t="n">
-        <v>361651.6808086724</v>
+        <v>394908.1537391454</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.646818918779833e-06</v>
+        <v>6.747569789556639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>327136.1519736139</v>
+        <v>357218.6738033555</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.7701368505341</v>
+        <v>229.1613380778901</v>
       </c>
       <c r="AB4" t="n">
-        <v>280.1755350596342</v>
+        <v>313.5486526427393</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.4359752224581</v>
+        <v>283.624009302907</v>
       </c>
       <c r="AD4" t="n">
-        <v>204770.1368505341</v>
+        <v>229161.3380778901</v>
       </c>
       <c r="AE4" t="n">
-        <v>280175.5350596342</v>
+        <v>313548.6526427393</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.244507418269431e-06</v>
+        <v>7.853449997085783e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.580208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>253435.9752224581</v>
+        <v>283624.009302907</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>186.6677842538309</v>
+        <v>210.8883932805947</v>
       </c>
       <c r="AB5" t="n">
-        <v>255.4070976174045</v>
+        <v>288.5468034256627</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.0314026869867</v>
+        <v>261.0083014847845</v>
       </c>
       <c r="AD5" t="n">
-        <v>186667.7842538308</v>
+        <v>210888.3932805947</v>
       </c>
       <c r="AE5" t="n">
-        <v>255407.0976174045</v>
+        <v>288546.8034256627</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.549259987328199e-06</v>
+        <v>8.417322038464445e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.340625</v>
       </c>
       <c r="AH5" t="n">
-        <v>231031.4026869867</v>
+        <v>261008.3014847845</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>175.6632467804502</v>
+        <v>187.8589369026793</v>
       </c>
       <c r="AB6" t="n">
-        <v>240.3502039604031</v>
+        <v>257.0368852215041</v>
       </c>
       <c r="AC6" t="n">
-        <v>217.4115178281218</v>
+        <v>232.5056456495728</v>
       </c>
       <c r="AD6" t="n">
-        <v>175663.2467804502</v>
+        <v>187858.9369026793</v>
       </c>
       <c r="AE6" t="n">
-        <v>240350.2039604032</v>
+        <v>257036.8852215041</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.753206416980739e-06</v>
+        <v>8.794676329439731e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.196875</v>
       </c>
       <c r="AH6" t="n">
-        <v>217411.5178281218</v>
+        <v>232505.6456495728</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>173.0844326097733</v>
+        <v>185.2801227320024</v>
       </c>
       <c r="AB7" t="n">
-        <v>236.821756642833</v>
+        <v>253.5084379039339</v>
       </c>
       <c r="AC7" t="n">
-        <v>214.2198205703325</v>
+        <v>229.3139483917835</v>
       </c>
       <c r="AD7" t="n">
-        <v>173084.4326097733</v>
+        <v>185280.1227320023</v>
       </c>
       <c r="AE7" t="n">
-        <v>236821.7566428329</v>
+        <v>253508.4379039339</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.809226037142811e-06</v>
+        <v>8.898327293484444e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.159374999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>214219.8205703325</v>
+        <v>229313.9483917835</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>165.4589216495708</v>
+        <v>177.6546117717999</v>
       </c>
       <c r="AB8" t="n">
-        <v>226.3881961332885</v>
+        <v>243.0748773943894</v>
       </c>
       <c r="AC8" t="n">
-        <v>204.7820244322214</v>
+        <v>219.8761522536724</v>
       </c>
       <c r="AD8" t="n">
-        <v>165458.9216495708</v>
+        <v>177654.6117717999</v>
       </c>
       <c r="AE8" t="n">
-        <v>226388.1961332885</v>
+        <v>243074.8773943894</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.950879816250547e-06</v>
+        <v>9.160423871837092e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.069791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>204782.0244322214</v>
+        <v>219876.1522536725</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>161.4837080249983</v>
+        <v>173.6793981472273</v>
       </c>
       <c r="AB9" t="n">
-        <v>220.9491334781032</v>
+        <v>237.6358147392041</v>
       </c>
       <c r="AC9" t="n">
-        <v>199.8620582830729</v>
+        <v>214.9561861045239</v>
       </c>
       <c r="AD9" t="n">
-        <v>161483.7080249983</v>
+        <v>173679.3981472273</v>
       </c>
       <c r="AE9" t="n">
-        <v>220949.1334781032</v>
+        <v>237635.8147392041</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.024697336568277e-06</v>
+        <v>9.297005610916846e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.023958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>199862.058283073</v>
+        <v>214956.1861045239</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>145.3104848338732</v>
+        <v>169.6163452066576</v>
       </c>
       <c r="AB10" t="n">
-        <v>198.8202159957669</v>
+        <v>232.0765664566744</v>
       </c>
       <c r="AC10" t="n">
-        <v>179.8450936271131</v>
+        <v>209.9275046756231</v>
       </c>
       <c r="AD10" t="n">
-        <v>145310.4848338732</v>
+        <v>169616.3452066576</v>
       </c>
       <c r="AE10" t="n">
-        <v>198820.215995767</v>
+        <v>232076.5664566744</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.093408901923317e-06</v>
+        <v>9.424139996502939e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>179845.0936271131</v>
+        <v>209927.5046756231</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>140.9072093837872</v>
+        <v>165.2130697565716</v>
       </c>
       <c r="AB11" t="n">
-        <v>192.7954602661596</v>
+        <v>226.051810727067</v>
       </c>
       <c r="AC11" t="n">
-        <v>174.3953321285397</v>
+        <v>204.4777431770498</v>
       </c>
       <c r="AD11" t="n">
-        <v>140907.2093837872</v>
+        <v>165213.0697565716</v>
       </c>
       <c r="AE11" t="n">
-        <v>192795.4602661596</v>
+        <v>226051.8107270671</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.174374759188811e-06</v>
+        <v>9.573948030473814e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.936458333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>174395.3321285397</v>
+        <v>204477.7431770498</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>140.5431824753577</v>
+        <v>164.8490428481421</v>
       </c>
       <c r="AB12" t="n">
-        <v>192.2973825903128</v>
+        <v>225.5537330512203</v>
       </c>
       <c r="AC12" t="n">
-        <v>173.9447902870193</v>
+        <v>204.0272013355293</v>
       </c>
       <c r="AD12" t="n">
-        <v>140543.1824753577</v>
+        <v>164849.0428481421</v>
       </c>
       <c r="AE12" t="n">
-        <v>192297.3825903128</v>
+        <v>225553.7330512203</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.159494547583261e-06</v>
+        <v>9.546415743149438e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.945833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>173944.7902870192</v>
+        <v>204027.2013355293</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>138.0938231067483</v>
+        <v>162.3996834795327</v>
       </c>
       <c r="AB13" t="n">
-        <v>188.9460610440741</v>
+        <v>222.2024115049816</v>
       </c>
       <c r="AC13" t="n">
-        <v>170.9133141655431</v>
+        <v>200.9957252140532</v>
       </c>
       <c r="AD13" t="n">
-        <v>138093.8231067483</v>
+        <v>162399.6834795327</v>
       </c>
       <c r="AE13" t="n">
-        <v>188946.0610440741</v>
+        <v>222202.4115049816</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.191880890489458e-06</v>
+        <v>9.606338956737787e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.927083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>170913.3141655431</v>
+        <v>200995.7252140532</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>135.3723272144428</v>
+        <v>159.6781875872272</v>
       </c>
       <c r="AB14" t="n">
-        <v>185.2223903002986</v>
+        <v>218.4787407612061</v>
       </c>
       <c r="AC14" t="n">
-        <v>167.5450253313477</v>
+        <v>197.6274363798577</v>
       </c>
       <c r="AD14" t="n">
-        <v>135372.3272144428</v>
+        <v>159678.1875872272</v>
       </c>
       <c r="AE14" t="n">
-        <v>185222.3903002986</v>
+        <v>218478.7407612061</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.232436761335958e-06</v>
+        <v>9.681377935915991e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2.904166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>167545.0253313477</v>
+        <v>197627.4363798577</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>132.2475515884848</v>
+        <v>156.5534119612691</v>
       </c>
       <c r="AB15" t="n">
-        <v>180.9469344334936</v>
+        <v>214.2032848944012</v>
       </c>
       <c r="AC15" t="n">
-        <v>163.6776129718292</v>
+        <v>193.7600240203393</v>
       </c>
       <c r="AD15" t="n">
-        <v>132247.5515884848</v>
+        <v>156553.4119612692</v>
       </c>
       <c r="AE15" t="n">
-        <v>180946.9344334936</v>
+        <v>214203.2848944011</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.269345521494822e-06</v>
+        <v>9.749668805455867e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>3</v>
+        <v>2.884375</v>
       </c>
       <c r="AH15" t="n">
-        <v>163677.6129718292</v>
+        <v>193760.0240203393</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>130.9620317901719</v>
+        <v>155.2678921629563</v>
       </c>
       <c r="AB16" t="n">
-        <v>179.1880295323119</v>
+        <v>212.4443799932195</v>
       </c>
       <c r="AC16" t="n">
-        <v>162.0865754857772</v>
+        <v>192.1689865342873</v>
       </c>
       <c r="AD16" t="n">
-        <v>130962.0317901719</v>
+        <v>155267.8921629563</v>
       </c>
       <c r="AE16" t="n">
-        <v>179188.0295323119</v>
+        <v>212444.3799932195</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.277369165007619e-06</v>
+        <v>9.76451464666019e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>2.879166666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>162086.5754857772</v>
+        <v>192168.9865342873</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>130.425372057944</v>
+        <v>154.7312324307284</v>
       </c>
       <c r="AB17" t="n">
-        <v>178.4537480109216</v>
+        <v>211.7100984718292</v>
       </c>
       <c r="AC17" t="n">
-        <v>161.4223727622176</v>
+        <v>191.5047838107277</v>
       </c>
       <c r="AD17" t="n">
-        <v>130425.372057944</v>
+        <v>154731.2324307284</v>
       </c>
       <c r="AE17" t="n">
-        <v>178453.7480109216</v>
+        <v>211710.0984718291</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.272846747754951e-06</v>
+        <v>9.756146990708662e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>2.882291666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>161422.3727622176</v>
+        <v>191504.7838107277</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>130.9548046691745</v>
+        <v>155.2606650419589</v>
       </c>
       <c r="AB18" t="n">
-        <v>179.1781410665253</v>
+        <v>212.4344915274328</v>
       </c>
       <c r="AC18" t="n">
-        <v>162.0776307612867</v>
+        <v>192.1600418097968</v>
       </c>
       <c r="AD18" t="n">
-        <v>130954.8046691745</v>
+        <v>155260.6650419589</v>
       </c>
       <c r="AE18" t="n">
-        <v>179178.1410665252</v>
+        <v>212434.4915274328</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.270512596914865e-06</v>
+        <v>9.751828200540133e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>3</v>
+        <v>2.883333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>162077.6307612867</v>
+        <v>192160.0418097968</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>447.7678532471172</v>
+        <v>482.9737382992482</v>
       </c>
       <c r="AB2" t="n">
-        <v>612.6557309362158</v>
+        <v>660.8259760385725</v>
       </c>
       <c r="AC2" t="n">
-        <v>554.1847278433814</v>
+        <v>597.7576723605329</v>
       </c>
       <c r="AD2" t="n">
-        <v>447767.8532471171</v>
+        <v>482973.7382992482</v>
       </c>
       <c r="AE2" t="n">
-        <v>612655.7309362158</v>
+        <v>660825.9760385725</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.589406419658684e-06</v>
+        <v>4.935808265173216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.070833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>554184.7278433815</v>
+        <v>597757.6723605329</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.6558010121944</v>
+        <v>228.1832252776286</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.0190957214768</v>
+        <v>312.2103555581309</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.2944662351704</v>
+        <v>282.4134374137415</v>
       </c>
       <c r="AD3" t="n">
-        <v>204655.8010121944</v>
+        <v>228183.2252776286</v>
       </c>
       <c r="AE3" t="n">
-        <v>280019.0957214768</v>
+        <v>312210.3555581309</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.120594060051329e-06</v>
+        <v>7.854488219622887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.814583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>253294.4662351704</v>
+        <v>282413.4374137415</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.6910531382131</v>
+        <v>197.047885203055</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.6517616120528</v>
+        <v>269.6096096738601</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.9706110302095</v>
+        <v>243.8784469261296</v>
       </c>
       <c r="AD4" t="n">
-        <v>173691.0531382131</v>
+        <v>197047.885203055</v>
       </c>
       <c r="AE4" t="n">
-        <v>237651.7616120528</v>
+        <v>269609.6096738601</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.648194295692241e-06</v>
+        <v>8.860175694564345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.382291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>214970.6110302095</v>
+        <v>243878.4469261295</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.0100901887717</v>
+        <v>171.7738918300398</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.9328645431483</v>
+        <v>235.0286169310238</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.0382192254183</v>
+        <v>212.5978155959305</v>
       </c>
       <c r="AD5" t="n">
-        <v>160010.0901887717</v>
+        <v>171773.8918300398</v>
       </c>
       <c r="AE5" t="n">
-        <v>218932.8645431483</v>
+        <v>235028.6169310238</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.932066161607731e-06</v>
+        <v>9.40127928162524e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>198038.2192254183</v>
+        <v>212597.8155959304</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.7850752813704</v>
+        <v>165.5488769226385</v>
       </c>
       <c r="AB6" t="n">
-        <v>210.4155245185708</v>
+        <v>226.5112769064463</v>
       </c>
       <c r="AC6" t="n">
-        <v>190.333762178622</v>
+        <v>204.893358549134</v>
       </c>
       <c r="AD6" t="n">
-        <v>153785.0752813704</v>
+        <v>165548.8769226385</v>
       </c>
       <c r="AE6" t="n">
-        <v>210415.5245185708</v>
+        <v>226511.2769064463</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.069399174889548e-06</v>
+        <v>9.663057199873732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.101041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>190333.762178622</v>
+        <v>204893.358549134</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>147.512453932368</v>
+        <v>159.2762555736361</v>
       </c>
       <c r="AB7" t="n">
-        <v>201.8330472603466</v>
+        <v>217.928799648222</v>
       </c>
       <c r="AC7" t="n">
-        <v>182.5703845043374</v>
+        <v>197.1299808748495</v>
       </c>
       <c r="AD7" t="n">
-        <v>147512.453932368</v>
+        <v>159276.2555736361</v>
       </c>
       <c r="AE7" t="n">
-        <v>201833.0472603466</v>
+        <v>217928.799648222</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.196469941025029e-06</v>
+        <v>9.905273691264094e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.025</v>
       </c>
       <c r="AH7" t="n">
-        <v>182570.3845043374</v>
+        <v>197129.9808748495</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.058672300361</v>
+        <v>154.5007557112235</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.320257341831</v>
+        <v>211.3947500562875</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.2061836587387</v>
+        <v>191.2195318053709</v>
       </c>
       <c r="AD8" t="n">
-        <v>131058.672300361</v>
+        <v>154500.7557112235</v>
       </c>
       <c r="AE8" t="n">
-        <v>179320.257341831</v>
+        <v>211394.7500562875</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.287924672946766e-06</v>
+        <v>1.007960052473507e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.972916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>162206.1836587387</v>
+        <v>191219.5318053709</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.1358896766318</v>
+        <v>150.5779730874943</v>
       </c>
       <c r="AB9" t="n">
-        <v>173.9529330950921</v>
+        <v>206.0274258095486</v>
       </c>
       <c r="AC9" t="n">
-        <v>157.3511093050199</v>
+        <v>186.3644574516522</v>
       </c>
       <c r="AD9" t="n">
-        <v>127135.8896766318</v>
+        <v>150577.9730874943</v>
       </c>
       <c r="AE9" t="n">
-        <v>173952.9330950921</v>
+        <v>206027.4258095486</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.353120125405827e-06</v>
+        <v>1.020387311889259e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.936458333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>157351.10930502</v>
+        <v>186364.4574516522</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>123.8939683673311</v>
+        <v>147.3360517781936</v>
       </c>
       <c r="AB10" t="n">
-        <v>169.517193336235</v>
+        <v>201.5916860506915</v>
       </c>
       <c r="AC10" t="n">
-        <v>153.338710323147</v>
+        <v>182.3520584697792</v>
       </c>
       <c r="AD10" t="n">
-        <v>123893.9683673311</v>
+        <v>147336.0517781936</v>
       </c>
       <c r="AE10" t="n">
-        <v>169517.193336235</v>
+        <v>201591.6860506915</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.402771291746176e-06</v>
+        <v>1.02985159047209e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.909375</v>
       </c>
       <c r="AH10" t="n">
-        <v>153338.710323147</v>
+        <v>182352.0584697792</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>120.8531187935851</v>
+        <v>144.2952022044477</v>
       </c>
       <c r="AB11" t="n">
-        <v>165.3565687966227</v>
+        <v>197.4310615110792</v>
       </c>
       <c r="AC11" t="n">
-        <v>149.5751699501207</v>
+        <v>178.5885180967529</v>
       </c>
       <c r="AD11" t="n">
-        <v>120853.1187935851</v>
+        <v>144295.2022044477</v>
       </c>
       <c r="AE11" t="n">
-        <v>165356.5687966227</v>
+        <v>197431.0615110792</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.437180002766235e-06</v>
+        <v>1.036410421830403e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.891666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>149575.1699501207</v>
+        <v>178588.518096753</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.6824379797803</v>
+        <v>142.1245213906428</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.3865475434976</v>
+        <v>194.4610402579541</v>
       </c>
       <c r="AC12" t="n">
-        <v>146.8886033569419</v>
+        <v>175.9019515035741</v>
       </c>
       <c r="AD12" t="n">
-        <v>118682.4379797803</v>
+        <v>142124.5213906428</v>
       </c>
       <c r="AE12" t="n">
-        <v>162386.5475434976</v>
+        <v>194461.0402579541</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.469324982798133e-06</v>
+        <v>1.04253775112567e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.873958333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>146888.6033569419</v>
+        <v>175901.9515035741</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>119.0350347184806</v>
+        <v>142.4771181293432</v>
       </c>
       <c r="AB13" t="n">
-        <v>162.8689859568574</v>
+        <v>194.943478671314</v>
       </c>
       <c r="AC13" t="n">
-        <v>147.3249985252373</v>
+        <v>176.3383466718696</v>
       </c>
       <c r="AD13" t="n">
-        <v>119035.0347184806</v>
+        <v>142477.1181293432</v>
       </c>
       <c r="AE13" t="n">
-        <v>162868.9859568574</v>
+        <v>194943.478671314</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.467815828806025e-06</v>
+        <v>1.042250083083639e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="AH13" t="n">
-        <v>147324.9985252373</v>
+        <v>176338.3466718696</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.8057521932563</v>
+        <v>176.7326371756378</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.1803038153854</v>
+        <v>241.8133910772726</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.8346748197415</v>
+        <v>218.7350604201537</v>
       </c>
       <c r="AD2" t="n">
-        <v>155805.7521932563</v>
+        <v>176732.6371756378</v>
       </c>
       <c r="AE2" t="n">
-        <v>213180.3038153854</v>
+        <v>241813.3910772726</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.502163319846354e-06</v>
+        <v>9.588429641921372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.895833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>192834.6748197415</v>
+        <v>218735.0604201537</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.3726239323265</v>
+        <v>125.8361559320683</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.8579139450833</v>
+        <v>172.1745800455753</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.7921761931816</v>
+        <v>155.7424797746143</v>
       </c>
       <c r="AD3" t="n">
-        <v>115372.6239323265</v>
+        <v>125836.1559320683</v>
       </c>
       <c r="AE3" t="n">
-        <v>157857.9139450833</v>
+        <v>172174.5800455753</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.580089162761503e-06</v>
+        <v>1.188412959097462e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.14375</v>
       </c>
       <c r="AH3" t="n">
-        <v>142792.1761931816</v>
+        <v>155742.4797746143</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.49551441693876</v>
+        <v>115.3370585447486</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.2929316730755</v>
+        <v>157.8092518127651</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.9533957380008</v>
+        <v>142.7481583064741</v>
       </c>
       <c r="AD4" t="n">
-        <v>94495.51441693876</v>
+        <v>115337.0585447486</v>
       </c>
       <c r="AE4" t="n">
-        <v>129292.9316730755</v>
+        <v>157809.2518127651</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.878493254879241e-06</v>
+        <v>1.25196522139589e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>116953.3957380008</v>
+        <v>142748.1583064741</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.72922242272142</v>
+        <v>112.5707665505313</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.5079689263996</v>
+        <v>154.0242890660892</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.5296645236378</v>
+        <v>139.3244270921112</v>
       </c>
       <c r="AD5" t="n">
-        <v>91729.22242272142</v>
+        <v>112570.7665505313</v>
       </c>
       <c r="AE5" t="n">
-        <v>125507.9689263996</v>
+        <v>154024.2890660892</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.976501822380665e-06</v>
+        <v>1.272838481360724e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.935416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>113529.6645236379</v>
+        <v>139324.4270921112</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.4151642808734</v>
+        <v>251.2735050272532</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.8959488516826</v>
+        <v>343.8034949827997</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.9381600491023</v>
+        <v>310.9913719529797</v>
       </c>
       <c r="AD2" t="n">
-        <v>229415.1642808734</v>
+        <v>251273.5050272532</v>
       </c>
       <c r="AE2" t="n">
-        <v>313895.9488516827</v>
+        <v>343803.4949827997</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.73210176817289e-06</v>
+        <v>7.577456895138981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.496875</v>
       </c>
       <c r="AH2" t="n">
-        <v>283938.1600491023</v>
+        <v>310991.3719529797</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.6424901049772</v>
+        <v>166.4154899967854</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.9062361378444</v>
+        <v>227.6970151467639</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.0183427240516</v>
+        <v>205.9659315959902</v>
       </c>
       <c r="AD3" t="n">
-        <v>144642.4901049772</v>
+        <v>166415.4899967854</v>
       </c>
       <c r="AE3" t="n">
-        <v>197906.2361378444</v>
+        <v>227697.0151467639</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.989346100333006e-06</v>
+        <v>1.013009755859683e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.363541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>179018.3427240516</v>
+        <v>205965.9315959902</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.0424959835487</v>
+        <v>139.0143815383</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.1933918408626</v>
+        <v>190.2056097022942</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.4731804090893</v>
+        <v>172.0526532676108</v>
       </c>
       <c r="AD4" t="n">
-        <v>128042.4959835487</v>
+        <v>139014.3815383</v>
       </c>
       <c r="AE4" t="n">
-        <v>175193.3918408626</v>
+        <v>190205.6097022942</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.431089303662456e-06</v>
+        <v>1.102698898596759e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.089583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>158473.1804090893</v>
+        <v>172052.6532676108</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.7664215392045</v>
+        <v>131.6246727770332</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.1872605026235</v>
+        <v>180.0946841641923</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.853599149438</v>
+        <v>162.9067002720889</v>
       </c>
       <c r="AD5" t="n">
-        <v>109766.4215392045</v>
+        <v>131624.6727770332</v>
       </c>
       <c r="AE5" t="n">
-        <v>150187.2605026235</v>
+        <v>180094.6841641923</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.605563369747721e-06</v>
+        <v>1.138123166132957e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.99375</v>
       </c>
       <c r="AH5" t="n">
-        <v>135853.599149438</v>
+        <v>162906.7002720889</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.3380268419935</v>
+        <v>125.1962780798223</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.3916472771454</v>
+        <v>171.2990709387142</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.8974269054761</v>
+        <v>154.950528028127</v>
       </c>
       <c r="AD6" t="n">
-        <v>103338.0268419935</v>
+        <v>125196.2780798223</v>
       </c>
       <c r="AE6" t="n">
-        <v>141391.6472771454</v>
+        <v>171299.0709387142</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.757483078259636e-06</v>
+        <v>1.168968119306211e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.914583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>127897.4269054761</v>
+        <v>154950.528028127</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.4569147745561</v>
+        <v>123.3151660123848</v>
       </c>
       <c r="AB7" t="n">
-        <v>138.8178267576714</v>
+        <v>168.7252504192402</v>
       </c>
       <c r="AC7" t="n">
-        <v>125.569248204</v>
+        <v>152.6223493266509</v>
       </c>
       <c r="AD7" t="n">
-        <v>101456.914774556</v>
+        <v>123315.1660123848</v>
       </c>
       <c r="AE7" t="n">
-        <v>138817.8267576714</v>
+        <v>168725.2504192402</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.796953204012998e-06</v>
+        <v>1.176981919441362e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.894791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>125569.248204</v>
+        <v>152622.349326651</v>
       </c>
     </row>
   </sheetData>
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.9106603957628</v>
+        <v>140.0036369897495</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.0670556383928</v>
+        <v>191.5591526538372</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.4087261178687</v>
+        <v>173.2770159795683</v>
       </c>
       <c r="AD2" t="n">
-        <v>119910.6603957628</v>
+        <v>140003.6369897495</v>
       </c>
       <c r="AE2" t="n">
-        <v>164067.0556383928</v>
+        <v>191559.1526538372</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.162264418043643e-06</v>
+        <v>1.149535454463582e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.529166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>148408.7261178687</v>
+        <v>173277.0159795684</v>
       </c>
     </row>
     <row r="3">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.88533625884945</v>
+        <v>104.9319140643939</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.8263031149034</v>
+        <v>143.5724740921739</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.4358629580123</v>
+        <v>129.8701186700887</v>
       </c>
       <c r="AD3" t="n">
-        <v>94885.33625884945</v>
+        <v>104931.9140643938</v>
       </c>
       <c r="AE3" t="n">
-        <v>129826.3031149034</v>
+        <v>143572.4740921739</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.052840729761973e-06</v>
+        <v>1.347849403986843e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.009375</v>
       </c>
       <c r="AH3" t="n">
-        <v>117435.8629580123</v>
+        <v>129870.1186700886</v>
       </c>
     </row>
     <row r="4">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.7935070959972</v>
+        <v>104.8400849015416</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.7006584030722</v>
+        <v>143.4468293803428</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.3222096011348</v>
+        <v>129.7564653132112</v>
       </c>
       <c r="AD4" t="n">
-        <v>94793.50709599719</v>
+        <v>104840.0849015416</v>
       </c>
       <c r="AE4" t="n">
-        <v>129700.6584030722</v>
+        <v>143446.8293803428</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.070330445231697e-06</v>
+        <v>1.35174402200576e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.001041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>117322.2096011348</v>
+        <v>129756.4653132111</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>497.3364239887989</v>
+        <v>532.8828636255538</v>
       </c>
       <c r="AB2" t="n">
-        <v>680.4776362359885</v>
+        <v>729.1138431452355</v>
       </c>
       <c r="AC2" t="n">
-        <v>615.5338056899858</v>
+        <v>659.5282412731594</v>
       </c>
       <c r="AD2" t="n">
-        <v>497336.4239887989</v>
+        <v>532882.8636255538</v>
       </c>
       <c r="AE2" t="n">
-        <v>680477.6362359885</v>
+        <v>729113.8431452354</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.426457173214434e-06</v>
+        <v>4.5878570665831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.420833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>615533.8056899857</v>
+        <v>659528.2412731594</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.3993406067579</v>
+        <v>239.1538012619413</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.7188805662668</v>
+        <v>327.2207816075144</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.5913242456561</v>
+        <v>295.9912894682418</v>
       </c>
       <c r="AD3" t="n">
-        <v>215399.3406067579</v>
+        <v>239153.8012619413</v>
       </c>
       <c r="AE3" t="n">
-        <v>294718.8805662668</v>
+        <v>327220.7816075144</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.000573405221455e-06</v>
+        <v>7.564138848251439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.89375</v>
       </c>
       <c r="AH3" t="n">
-        <v>266591.3242456561</v>
+        <v>295991.2894682418</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.6638528579059</v>
+        <v>204.247721312497</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.1922538067447</v>
+        <v>279.4607430731454</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.6005720400079</v>
+        <v>252.7894019799427</v>
       </c>
       <c r="AD4" t="n">
-        <v>180663.8528579059</v>
+        <v>204247.721312497</v>
       </c>
       <c r="AE4" t="n">
-        <v>247192.2538067447</v>
+        <v>279460.7430731453</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.55319663346525e-06</v>
+        <v>8.609018770651867e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>223600.5720400079</v>
+        <v>252789.4019799427</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.2520044311287</v>
+        <v>178.1293242672714</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.4733269833584</v>
+        <v>243.7243999735306</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.7635919169518</v>
+        <v>220.4636853094713</v>
       </c>
       <c r="AD5" t="n">
-        <v>166252.0044311287</v>
+        <v>178129.3242672714</v>
       </c>
       <c r="AE5" t="n">
-        <v>227473.3269833584</v>
+        <v>243724.3999735306</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.837958372728088e-06</v>
+        <v>9.147435921463888e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.219791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>205763.5919169518</v>
+        <v>220463.6853094713</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>155.3715150415023</v>
+        <v>167.248834877645</v>
       </c>
       <c r="AB6" t="n">
-        <v>212.5861613871648</v>
+        <v>228.837234377337</v>
       </c>
       <c r="AC6" t="n">
-        <v>192.297236510986</v>
+        <v>206.9973299035055</v>
       </c>
       <c r="AD6" t="n">
-        <v>155371.5150415023</v>
+        <v>167248.834877645</v>
       </c>
       <c r="AE6" t="n">
-        <v>212586.1613871648</v>
+        <v>228837.234377337</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.069327285879144e-06</v>
+        <v>9.584899856498655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>192297.236510986</v>
+        <v>206997.3299035055</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>153.4961755816268</v>
+        <v>165.3734954177695</v>
       </c>
       <c r="AB7" t="n">
-        <v>210.0202392040264</v>
+        <v>226.2713121941986</v>
       </c>
       <c r="AC7" t="n">
-        <v>189.9762023397111</v>
+        <v>204.6762957322306</v>
       </c>
       <c r="AD7" t="n">
-        <v>153496.1755816268</v>
+        <v>165373.4954177695</v>
       </c>
       <c r="AE7" t="n">
-        <v>210020.2392040264</v>
+        <v>226271.3121941986</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.099538352754718e-06</v>
+        <v>9.642021844137325e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.055208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>189976.2023397111</v>
+        <v>204676.2957322306</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>136.1274075071149</v>
+        <v>159.7965273077267</v>
       </c>
       <c r="AB8" t="n">
-        <v>186.2555244685235</v>
+        <v>218.6406583875733</v>
       </c>
       <c r="AC8" t="n">
-        <v>168.4795586245704</v>
+        <v>197.7739008152174</v>
       </c>
       <c r="AD8" t="n">
-        <v>136127.4075071149</v>
+        <v>159796.5273077267</v>
       </c>
       <c r="AE8" t="n">
-        <v>186255.5244685235</v>
+        <v>218640.6583875733</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.210511677614501e-06</v>
+        <v>9.851846174968481e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.989583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>168479.5586245704</v>
+        <v>197773.9008152173</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.8127069976954</v>
+        <v>156.4818267983071</v>
       </c>
       <c r="AB9" t="n">
-        <v>181.7202049972722</v>
+        <v>214.105338916322</v>
       </c>
       <c r="AC9" t="n">
-        <v>164.377083678293</v>
+        <v>193.67142586894</v>
       </c>
       <c r="AD9" t="n">
-        <v>132812.7069976954</v>
+        <v>156481.8267983071</v>
       </c>
       <c r="AE9" t="n">
-        <v>181720.2049972722</v>
+        <v>214105.338916322</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.269886893206595e-06</v>
+        <v>9.964110675426658e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.95625</v>
       </c>
       <c r="AH9" t="n">
-        <v>164377.083678293</v>
+        <v>193671.42586894</v>
       </c>
     </row>
     <row r="10">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.4358732612241</v>
+        <v>152.1049930618358</v>
       </c>
       <c r="AB10" t="n">
-        <v>175.7316279867585</v>
+        <v>208.1167619058083</v>
       </c>
       <c r="AC10" t="n">
-        <v>158.9600480526402</v>
+        <v>188.2543902432872</v>
       </c>
       <c r="AD10" t="n">
-        <v>128435.8732612241</v>
+        <v>152104.9930618358</v>
       </c>
       <c r="AE10" t="n">
-        <v>175731.6279867585</v>
+        <v>208116.7619058084</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.348704874609701e-06</v>
+        <v>1.011313685109784e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.9125</v>
       </c>
       <c r="AH10" t="n">
-        <v>158960.0480526402</v>
+        <v>188254.3902432872</v>
       </c>
     </row>
     <row r="11">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>126.9518017291098</v>
+        <v>150.6209215297215</v>
       </c>
       <c r="AB11" t="n">
-        <v>173.7010558439056</v>
+        <v>206.0861897629554</v>
       </c>
       <c r="AC11" t="n">
-        <v>157.1232708651746</v>
+        <v>186.4176130558216</v>
       </c>
       <c r="AD11" t="n">
-        <v>126951.8017291098</v>
+        <v>150620.9215297215</v>
       </c>
       <c r="AE11" t="n">
-        <v>173701.0558439055</v>
+        <v>206086.1897629554</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.35558462251206e-06</v>
+        <v>1.012614482848091e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.909375</v>
       </c>
       <c r="AH11" t="n">
-        <v>157123.2708651746</v>
+        <v>186417.6130558216</v>
       </c>
     </row>
     <row r="12">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>123.0056059287927</v>
+        <v>146.6747257294045</v>
       </c>
       <c r="AB12" t="n">
-        <v>168.3016966560427</v>
+        <v>200.6868305750926</v>
       </c>
       <c r="AC12" t="n">
-        <v>152.2392189401515</v>
+        <v>181.5335611307984</v>
       </c>
       <c r="AD12" t="n">
-        <v>123005.6059287927</v>
+        <v>146674.7257294045</v>
       </c>
       <c r="AE12" t="n">
-        <v>168301.6966560427</v>
+        <v>200686.8305750926</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.407631410990772e-06</v>
+        <v>1.022455300520495e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.88125</v>
       </c>
       <c r="AH12" t="n">
-        <v>152239.2189401514</v>
+        <v>181533.5611307984</v>
       </c>
     </row>
     <row r="13">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>121.5876896558826</v>
+        <v>145.2568094564944</v>
       </c>
       <c r="AB13" t="n">
-        <v>166.3616410573969</v>
+        <v>198.7467749764468</v>
       </c>
       <c r="AC13" t="n">
-        <v>150.4843195249547</v>
+        <v>179.7786617156016</v>
       </c>
       <c r="AD13" t="n">
-        <v>121587.6896558826</v>
+        <v>145256.8094564943</v>
       </c>
       <c r="AE13" t="n">
-        <v>166361.6410573969</v>
+        <v>198746.7749764468</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.425429019694699e-06</v>
+        <v>1.02582040771307e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.871875</v>
       </c>
       <c r="AH13" t="n">
-        <v>150484.3195249547</v>
+        <v>179778.6617156016</v>
       </c>
     </row>
     <row r="14">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>121.2358875788586</v>
+        <v>144.9050073794703</v>
       </c>
       <c r="AB14" t="n">
-        <v>165.8802899352006</v>
+        <v>198.2654238542504</v>
       </c>
       <c r="AC14" t="n">
-        <v>150.0489078782801</v>
+        <v>179.3432500689271</v>
       </c>
       <c r="AD14" t="n">
-        <v>121235.8875788586</v>
+        <v>144905.0073794703</v>
       </c>
       <c r="AE14" t="n">
-        <v>165880.2899352006</v>
+        <v>198265.4238542504</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.439936314184455e-06</v>
+        <v>1.028563394248195e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2.863541666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>150048.9078782801</v>
+        <v>179343.2500689271</v>
       </c>
     </row>
   </sheetData>
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.8310630620629</v>
+        <v>121.259648831068</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.3297529508955</v>
+        <v>165.912801128746</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.032316879836</v>
+        <v>150.0783162491433</v>
       </c>
       <c r="AD2" t="n">
-        <v>101831.0630620629</v>
+        <v>121259.648831068</v>
       </c>
       <c r="AE2" t="n">
-        <v>139329.7529508955</v>
+        <v>165912.801128746</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.595478034936657e-06</v>
+        <v>1.282800688309155e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.332291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>126032.316879836</v>
+        <v>150078.3162491433</v>
       </c>
     </row>
     <row r="3">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.9403251147971</v>
+        <v>99.74000360814676</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.0603207091195</v>
+        <v>136.4686731550165</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.3156164169183</v>
+        <v>123.444294524124</v>
       </c>
       <c r="AD3" t="n">
-        <v>89940.3251147971</v>
+        <v>99740.00360814677</v>
       </c>
       <c r="AE3" t="n">
-        <v>123060.3207091195</v>
+        <v>136468.6731550165</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.098609272739964e-06</v>
+        <v>1.398146882885223e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.057291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>111315.6164169183</v>
+        <v>123444.294524124</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.0559741483192</v>
+        <v>344.8466449901842</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.651191936553</v>
+        <v>471.8343932358289</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.5960606359597</v>
+        <v>426.8031809691307</v>
       </c>
       <c r="AD2" t="n">
-        <v>322055.9741483192</v>
+        <v>344846.6449901842</v>
       </c>
       <c r="AE2" t="n">
-        <v>440651.191936553</v>
+        <v>471834.3932358289</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.116634057179059e-06</v>
+        <v>6.108559680393419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.196874999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>398596.0606359597</v>
+        <v>426803.1809691307</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.8779220170858</v>
+        <v>196.6685033503995</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.9074438561994</v>
+        <v>269.0905226859109</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.2018913198272</v>
+        <v>243.4089008717669</v>
       </c>
       <c r="AD3" t="n">
-        <v>173877.9220170858</v>
+        <v>196668.5033503995</v>
       </c>
       <c r="AE3" t="n">
-        <v>237907.4438561994</v>
+        <v>269090.5226859109</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.519150480834772e-06</v>
+        <v>8.857472488073953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.584375</v>
       </c>
       <c r="AH3" t="n">
-        <v>215201.8913198271</v>
+        <v>243408.9008717669</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.5220619807736</v>
+        <v>161.9174421559815</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.9509257667094</v>
+        <v>221.5425876511135</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.2952584655331</v>
+        <v>200.3988740227296</v>
       </c>
       <c r="AD4" t="n">
-        <v>150522.0619807736</v>
+        <v>161917.4421559815</v>
       </c>
       <c r="AE4" t="n">
-        <v>205950.9257667094</v>
+        <v>221542.5876511135</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.017494731147029e-06</v>
+        <v>9.834220331601238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.228125</v>
       </c>
       <c r="AH4" t="n">
-        <v>186295.2584655331</v>
+        <v>200398.8740227295</v>
       </c>
     </row>
     <row r="5">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.8638906005694</v>
+        <v>150.2592707757773</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.9997013620998</v>
+        <v>205.591363246504</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.8663965304103</v>
+        <v>185.9700120876067</v>
       </c>
       <c r="AD5" t="n">
-        <v>138863.8906005695</v>
+        <v>150259.2707757773</v>
       </c>
       <c r="AE5" t="n">
-        <v>189999.7013620998</v>
+        <v>205591.363246504</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.299241932883632e-06</v>
+        <v>1.038644095327719e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.05625</v>
       </c>
       <c r="AH5" t="n">
-        <v>171866.3965304103</v>
+        <v>185970.0120876067</v>
       </c>
     </row>
     <row r="6">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.6936755742176</v>
+        <v>145.3989160529596</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.8748997835171</v>
+        <v>198.941211491031</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.8531549621265</v>
+        <v>179.9545414821274</v>
       </c>
       <c r="AD6" t="n">
-        <v>122693.6755742175</v>
+        <v>145398.9160529596</v>
       </c>
       <c r="AE6" t="n">
-        <v>167874.8997835171</v>
+        <v>198941.211491031</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.399999210325861e-06</v>
+        <v>1.058392382460502e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.998958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>151853.1549621265</v>
+        <v>179954.5414821274</v>
       </c>
     </row>
     <row r="7">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.6534824214738</v>
+        <v>140.3587229002159</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.9786851543079</v>
+        <v>192.0449968618217</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.6151053782287</v>
+        <v>173.7164918982297</v>
       </c>
       <c r="AD7" t="n">
-        <v>117653.4824214738</v>
+        <v>140358.7229002159</v>
       </c>
       <c r="AE7" t="n">
-        <v>160978.6851543079</v>
+        <v>192044.9968618217</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.507598031298116e-06</v>
+        <v>1.079481602670202e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.940625</v>
       </c>
       <c r="AH7" t="n">
-        <v>145615.1053782287</v>
+        <v>173716.4918982297</v>
       </c>
     </row>
     <row r="8">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>113.0730225542665</v>
+        <v>135.7782630330086</v>
       </c>
       <c r="AB8" t="n">
-        <v>154.7114978883704</v>
+        <v>185.7778095958843</v>
       </c>
       <c r="AC8" t="n">
-        <v>139.9460496688978</v>
+        <v>168.0474361888987</v>
       </c>
       <c r="AD8" t="n">
-        <v>113073.0225542665</v>
+        <v>135778.2630330086</v>
       </c>
       <c r="AE8" t="n">
-        <v>154711.4978883704</v>
+        <v>185777.8095958843</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.588763615904356e-06</v>
+        <v>1.095389945082721e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.897916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>139946.0496688978</v>
+        <v>168047.4361888987</v>
       </c>
     </row>
     <row r="9">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>110.4899225102345</v>
+        <v>133.1951629889766</v>
       </c>
       <c r="AB9" t="n">
-        <v>151.1771864497965</v>
+        <v>182.2434981573104</v>
       </c>
       <c r="AC9" t="n">
-        <v>136.749047953583</v>
+        <v>164.8504344735839</v>
       </c>
       <c r="AD9" t="n">
-        <v>110489.9225102345</v>
+        <v>133195.1629889766</v>
       </c>
       <c r="AE9" t="n">
-        <v>151177.1864497965</v>
+        <v>182243.4981573104</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.613330976762184e-06</v>
+        <v>1.100205113858924e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.885416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>136749.047953583</v>
+        <v>164850.4344735839</v>
       </c>
     </row>
     <row r="10">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>110.1381179043141</v>
+        <v>132.8433583830562</v>
       </c>
       <c r="AB10" t="n">
-        <v>150.6958318674526</v>
+        <v>181.7621435749665</v>
       </c>
       <c r="AC10" t="n">
-        <v>136.3136331769924</v>
+        <v>164.4150196969934</v>
       </c>
       <c r="AD10" t="n">
-        <v>110138.1179043141</v>
+        <v>132843.3583830562</v>
       </c>
       <c r="AE10" t="n">
-        <v>150695.8318674526</v>
+        <v>181762.1435749665</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.638675785748423e-06</v>
+        <v>1.105172661393868e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.872916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>136313.6331769924</v>
+        <v>164415.0196969934</v>
       </c>
     </row>
   </sheetData>
@@ -13201,28 +13201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.6060811598601</v>
+        <v>427.5437129578738</v>
       </c>
       <c r="AB2" t="n">
-        <v>537.1809608007986</v>
+        <v>584.9841699663737</v>
       </c>
       <c r="AC2" t="n">
-        <v>485.9131638401834</v>
+        <v>529.1541018152213</v>
       </c>
       <c r="AD2" t="n">
-        <v>392606.0811598601</v>
+        <v>427543.7129578738</v>
       </c>
       <c r="AE2" t="n">
-        <v>537180.9608007986</v>
+        <v>584984.1699663737</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.759951858685878e-06</v>
+        <v>5.306567942763481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>485913.1638401834</v>
+        <v>529154.1018152214</v>
       </c>
     </row>
     <row r="3">
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.3037573412181</v>
+        <v>217.5955118732269</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.8549728709195</v>
+        <v>297.7237789812864</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.4821473899946</v>
+        <v>269.3094393733485</v>
       </c>
       <c r="AD3" t="n">
-        <v>194303.7573412181</v>
+        <v>217595.5118732269</v>
       </c>
       <c r="AE3" t="n">
-        <v>265854.9728709195</v>
+        <v>297723.7789812865</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.244439102615841e-06</v>
+        <v>8.160796140725909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.738541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>240482.1473899946</v>
+        <v>269309.4393733485</v>
       </c>
     </row>
     <row r="4">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.764141370688</v>
+        <v>188.8853037021046</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.8058112210646</v>
+        <v>258.4412055565846</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.1597829221467</v>
+        <v>233.7759396228496</v>
       </c>
       <c r="AD4" t="n">
-        <v>165764.141370688</v>
+        <v>188885.3037021046</v>
       </c>
       <c r="AE4" t="n">
-        <v>226805.8112210646</v>
+        <v>258441.2055565846</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.767909768681455e-06</v>
+        <v>9.167274803307899e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>205159.7829221468</v>
+        <v>233775.9396228497</v>
       </c>
     </row>
     <row r="5">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.2480822581802</v>
+        <v>164.8940490327356</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.680786973782</v>
+        <v>225.6153124985139</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.6691469538969</v>
+        <v>204.0829037268005</v>
       </c>
       <c r="AD5" t="n">
-        <v>153248.0822581802</v>
+        <v>164894.0490327356</v>
       </c>
       <c r="AE5" t="n">
-        <v>209680.786973782</v>
+        <v>225615.3124985139</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.043356498671744e-06</v>
+        <v>9.696877079777118e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.146875</v>
       </c>
       <c r="AH5" t="n">
-        <v>189669.1469538969</v>
+        <v>204082.9037268005</v>
       </c>
     </row>
     <row r="6">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>147.4114512671825</v>
+        <v>159.057418041738</v>
       </c>
       <c r="AB6" t="n">
-        <v>201.6948509579168</v>
+        <v>217.6293764826487</v>
       </c>
       <c r="AC6" t="n">
-        <v>182.4453774630518</v>
+        <v>196.8591342359553</v>
       </c>
       <c r="AD6" t="n">
-        <v>147411.4512671825</v>
+        <v>159057.418041738</v>
       </c>
       <c r="AE6" t="n">
-        <v>201694.8509579168</v>
+        <v>217629.3764826487</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.169501350680571e-06</v>
+        <v>9.939416175416782e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.069791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>182445.3774630518</v>
+        <v>196859.1342359553</v>
       </c>
     </row>
     <row r="7">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.6754129588216</v>
+        <v>152.8818266362588</v>
       </c>
       <c r="AB7" t="n">
-        <v>177.4276208856425</v>
+        <v>209.1796598738119</v>
       </c>
       <c r="AC7" t="n">
-        <v>160.4941777695963</v>
+        <v>189.2158467210115</v>
       </c>
       <c r="AD7" t="n">
-        <v>129675.4129588216</v>
+        <v>152881.8266362588</v>
       </c>
       <c r="AE7" t="n">
-        <v>177427.6208856425</v>
+        <v>209179.6598738119</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.297779086660561e-06</v>
+        <v>1.018605617363972e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.995833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>160494.1777695963</v>
+        <v>189215.8467210115</v>
       </c>
     </row>
     <row r="8">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>124.8546047961889</v>
+        <v>148.0610184736262</v>
       </c>
       <c r="AB8" t="n">
-        <v>170.8315784784859</v>
+        <v>202.5836174666552</v>
       </c>
       <c r="AC8" t="n">
-        <v>154.5276523921729</v>
+        <v>183.2493213435881</v>
       </c>
       <c r="AD8" t="n">
-        <v>124854.6047961889</v>
+        <v>148061.0184736262</v>
       </c>
       <c r="AE8" t="n">
-        <v>170831.5784784859</v>
+        <v>202583.6174666552</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.392540074522265e-06</v>
+        <v>1.036825341698256e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.942708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>154527.6523921729</v>
+        <v>183249.3213435881</v>
       </c>
     </row>
     <row r="9">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>120.1182873413768</v>
+        <v>143.324701018814</v>
       </c>
       <c r="AB9" t="n">
-        <v>164.351139985236</v>
+        <v>196.1031789734054</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.6656978533643</v>
+        <v>177.3873668047794</v>
       </c>
       <c r="AD9" t="n">
-        <v>120118.2873413768</v>
+        <v>143324.701018814</v>
       </c>
       <c r="AE9" t="n">
-        <v>164351.139985236</v>
+        <v>196103.1789734054</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.488062806659384e-06</v>
+        <v>1.055191526839086e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.891666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>148665.6978533643</v>
+        <v>177387.3668047794</v>
       </c>
     </row>
     <row r="10">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>118.5117664336991</v>
+        <v>141.7181801111363</v>
       </c>
       <c r="AB10" t="n">
-        <v>162.1530272046522</v>
+        <v>193.9050661928216</v>
       </c>
       <c r="AC10" t="n">
-        <v>146.677369871488</v>
+        <v>175.3990388229032</v>
       </c>
       <c r="AD10" t="n">
-        <v>118511.7664336991</v>
+        <v>141718.1801111363</v>
       </c>
       <c r="AE10" t="n">
-        <v>162153.0272046522</v>
+        <v>193905.0661928216</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.485168178412804e-06</v>
+        <v>1.054634975774213e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.892708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>146677.369871488</v>
+        <v>175399.0388229032</v>
       </c>
     </row>
     <row r="11">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>115.9136975631474</v>
+        <v>139.1201112405846</v>
       </c>
       <c r="AB11" t="n">
-        <v>158.5982347572559</v>
+        <v>190.3502737454253</v>
       </c>
       <c r="AC11" t="n">
-        <v>143.4618418260875</v>
+        <v>172.1835107775027</v>
       </c>
       <c r="AD11" t="n">
-        <v>115913.6975631474</v>
+        <v>139120.1112405846</v>
       </c>
       <c r="AE11" t="n">
-        <v>158598.2347572559</v>
+        <v>190350.2737454253</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.519446670806507e-06</v>
+        <v>1.061225712068769e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="AH11" t="n">
-        <v>143461.8418260875</v>
+        <v>172183.5107775027</v>
       </c>
     </row>
     <row r="12">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>116.4266579814984</v>
+        <v>139.6330716589356</v>
       </c>
       <c r="AB12" t="n">
-        <v>159.3000898318599</v>
+        <v>191.0521288200292</v>
       </c>
       <c r="AC12" t="n">
-        <v>144.0967128374313</v>
+        <v>172.8183817888465</v>
       </c>
       <c r="AD12" t="n">
-        <v>116426.6579814984</v>
+        <v>139633.0716589356</v>
       </c>
       <c r="AE12" t="n">
-        <v>159300.0898318599</v>
+        <v>191052.1288200292</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.513962112023514e-06</v>
+        <v>1.06017119426164e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.878125</v>
       </c>
       <c r="AH12" t="n">
-        <v>144096.7128374313</v>
+        <v>172818.3817888465</v>
       </c>
     </row>
   </sheetData>
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>632.8758431345346</v>
+        <v>669.1544989611945</v>
       </c>
       <c r="AB2" t="n">
-        <v>865.9286490883394</v>
+        <v>915.5667064917125</v>
       </c>
       <c r="AC2" t="n">
-        <v>783.2856341578397</v>
+        <v>828.1863050300859</v>
       </c>
       <c r="AD2" t="n">
-        <v>632875.8431345347</v>
+        <v>669154.4989611944</v>
       </c>
       <c r="AE2" t="n">
-        <v>865928.6490883394</v>
+        <v>915566.7064917125</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.119881923192461e-06</v>
+        <v>3.949179237443878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.226041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>783285.6341578397</v>
+        <v>828186.305030086</v>
       </c>
     </row>
     <row r="3">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.1308145379968</v>
+        <v>275.2312740707184</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.6082595603391</v>
+        <v>376.5835715304062</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.8147695252241</v>
+        <v>340.6429640019056</v>
       </c>
       <c r="AD3" t="n">
-        <v>251130.8145379968</v>
+        <v>275231.2740707184</v>
       </c>
       <c r="AE3" t="n">
-        <v>343608.2595603392</v>
+        <v>376583.5715304062</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.764790302273403e-06</v>
+        <v>7.013518787252924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.068750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>310814.7695252241</v>
+        <v>340642.9640019056</v>
       </c>
     </row>
     <row r="4">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.5278922386634</v>
+        <v>221.7136031174021</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.266376476395</v>
+        <v>303.3583330989277</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.4725328268087</v>
+        <v>274.4062395541503</v>
       </c>
       <c r="AD4" t="n">
-        <v>197527.8922386634</v>
+        <v>221713.6031174021</v>
       </c>
       <c r="AE4" t="n">
-        <v>270266.3764763949</v>
+        <v>303358.3330989277</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.330199985588817e-06</v>
+        <v>8.066834142966834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.5375</v>
       </c>
       <c r="AH4" t="n">
-        <v>244472.5328268087</v>
+        <v>274406.2395541503</v>
       </c>
     </row>
     <row r="5">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>179.29228224844</v>
+        <v>191.3852271963605</v>
       </c>
       <c r="AB5" t="n">
-        <v>245.3156103894497</v>
+        <v>261.8617111702645</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.9030328365735</v>
+        <v>236.8699969814708</v>
       </c>
       <c r="AD5" t="n">
-        <v>179292.2822484401</v>
+        <v>191385.2271963605</v>
       </c>
       <c r="AE5" t="n">
-        <v>245315.6103894498</v>
+        <v>261861.7111702645</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.651211517104435e-06</v>
+        <v>8.664854278603624e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.29375</v>
       </c>
       <c r="AH5" t="n">
-        <v>221903.0328365735</v>
+        <v>236869.9969814708</v>
       </c>
     </row>
     <row r="6">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>169.4424921973689</v>
+        <v>181.5354371452893</v>
       </c>
       <c r="AB6" t="n">
-        <v>231.8386930995124</v>
+        <v>248.3847938803271</v>
       </c>
       <c r="AC6" t="n">
-        <v>209.7123336178112</v>
+        <v>224.6792977627085</v>
       </c>
       <c r="AD6" t="n">
-        <v>169442.4921973689</v>
+        <v>181535.4371452893</v>
       </c>
       <c r="AE6" t="n">
-        <v>231838.6930995124</v>
+        <v>248384.7938803271</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.842230289179005e-06</v>
+        <v>9.020707762887726e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.163541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>209712.3336178112</v>
+        <v>224679.2977627085</v>
       </c>
     </row>
     <row r="7">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>165.2613343111975</v>
+        <v>177.354279259118</v>
       </c>
       <c r="AB7" t="n">
-        <v>226.1178484199881</v>
+        <v>242.6639492008029</v>
       </c>
       <c r="AC7" t="n">
-        <v>204.537478325243</v>
+        <v>219.5044424701404</v>
       </c>
       <c r="AD7" t="n">
-        <v>165261.3343111975</v>
+        <v>177354.279259118</v>
       </c>
       <c r="AE7" t="n">
-        <v>226117.8484199881</v>
+        <v>242663.9492008029</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.92781375749879e-06</v>
+        <v>9.180143273167439e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.108333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>204537.478325243</v>
+        <v>219504.4424701403</v>
       </c>
     </row>
     <row r="8">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>159.2465881379489</v>
+        <v>171.3395330858694</v>
       </c>
       <c r="AB8" t="n">
-        <v>217.88820735388</v>
+        <v>234.4343081346948</v>
       </c>
       <c r="AC8" t="n">
-        <v>197.0932626521078</v>
+        <v>212.0602267970052</v>
       </c>
       <c r="AD8" t="n">
-        <v>159246.5881379489</v>
+        <v>171339.5330858694</v>
       </c>
       <c r="AE8" t="n">
-        <v>217888.20735388</v>
+        <v>234434.3081346948</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.043983757451761e-06</v>
+        <v>9.396559172000725e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.036458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>197093.2626521078</v>
+        <v>212060.2267970052</v>
       </c>
     </row>
     <row r="9">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>155.8583327127203</v>
+        <v>167.9512776606407</v>
       </c>
       <c r="AB9" t="n">
-        <v>213.2522468018047</v>
+        <v>229.7983475826196</v>
       </c>
       <c r="AC9" t="n">
-        <v>192.8997516685097</v>
+        <v>207.866715813407</v>
       </c>
       <c r="AD9" t="n">
-        <v>155858.3327127203</v>
+        <v>167951.2776606407</v>
       </c>
       <c r="AE9" t="n">
-        <v>213252.2468018048</v>
+        <v>229798.3475826195</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.103686314389618e-06</v>
+        <v>9.50778050735049e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.001041666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>192899.7516685097</v>
+        <v>207866.715813407</v>
       </c>
     </row>
     <row r="10">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>140.2092318413181</v>
+        <v>164.3096018654853</v>
       </c>
       <c r="AB10" t="n">
-        <v>191.8404565999579</v>
+        <v>224.8156461002931</v>
       </c>
       <c r="AC10" t="n">
-        <v>173.531472671884</v>
+        <v>203.3595563672868</v>
       </c>
       <c r="AD10" t="n">
-        <v>140209.2318413181</v>
+        <v>164309.6018654853</v>
       </c>
       <c r="AE10" t="n">
-        <v>191840.4565999579</v>
+        <v>224815.6461002931</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.166771035883067e-06</v>
+        <v>9.625302558742237e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.964583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>173531.472671884</v>
+        <v>203359.5563672868</v>
       </c>
     </row>
     <row r="11">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>139.0097463042574</v>
+        <v>163.1101163284245</v>
       </c>
       <c r="AB11" t="n">
-        <v>190.199267570585</v>
+        <v>223.1744570709202</v>
       </c>
       <c r="AC11" t="n">
-        <v>172.0469164200507</v>
+        <v>201.8750001154535</v>
       </c>
       <c r="AD11" t="n">
-        <v>139009.7463042574</v>
+        <v>163110.1163284245</v>
       </c>
       <c r="AE11" t="n">
-        <v>190199.267570585</v>
+        <v>223174.4570709202</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.170006149805809e-06</v>
+        <v>9.63132933060848e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.9625</v>
       </c>
       <c r="AH11" t="n">
-        <v>172046.9164200507</v>
+        <v>201875.0001154535</v>
       </c>
     </row>
     <row r="12">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>135.2451307877427</v>
+        <v>159.3455008119098</v>
       </c>
       <c r="AB12" t="n">
-        <v>185.0483545377772</v>
+        <v>218.0235440381124</v>
       </c>
       <c r="AC12" t="n">
-        <v>167.3875992977406</v>
+        <v>197.2156829931433</v>
       </c>
       <c r="AD12" t="n">
-        <v>135245.1307877427</v>
+        <v>159345.5008119098</v>
       </c>
       <c r="AE12" t="n">
-        <v>185048.3545377772</v>
+        <v>218023.5440381124</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.232355618134998e-06</v>
+        <v>9.747481661121535e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.927083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>167387.5992977406</v>
+        <v>197215.6829931433</v>
       </c>
     </row>
     <row r="13">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>132.3965387925786</v>
+        <v>156.4969088167458</v>
       </c>
       <c r="AB13" t="n">
-        <v>181.1507852989863</v>
+        <v>214.1259747993215</v>
       </c>
       <c r="AC13" t="n">
-        <v>163.8620085968258</v>
+        <v>193.6900922922286</v>
       </c>
       <c r="AD13" t="n">
-        <v>132396.5387925786</v>
+        <v>156496.9088167458</v>
       </c>
       <c r="AE13" t="n">
-        <v>181150.7852989863</v>
+        <v>214125.9747993214</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.26955942824652e-06</v>
+        <v>9.816789537583335e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.907291666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>163862.0085968258</v>
+        <v>193690.0922922286</v>
       </c>
     </row>
     <row r="14">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>129.2549579897097</v>
+        <v>153.3553280138768</v>
       </c>
       <c r="AB14" t="n">
-        <v>176.8523358477398</v>
+        <v>209.8275253480749</v>
       </c>
       <c r="AC14" t="n">
-        <v>159.9737971282932</v>
+        <v>189.801880823696</v>
       </c>
       <c r="AD14" t="n">
-        <v>129254.9579897097</v>
+        <v>153355.3280138768</v>
       </c>
       <c r="AE14" t="n">
-        <v>176852.3358477398</v>
+        <v>209827.5253480749</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.315145124430598e-06</v>
+        <v>9.90171223206222e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2.882291666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>159973.7971282932</v>
+        <v>189801.880823696</v>
       </c>
     </row>
     <row r="15">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>128.1831958458241</v>
+        <v>152.2835658699912</v>
       </c>
       <c r="AB15" t="n">
-        <v>175.3859035996675</v>
+        <v>208.3610931000027</v>
       </c>
       <c r="AC15" t="n">
-        <v>158.6473191158259</v>
+        <v>188.4754028112286</v>
       </c>
       <c r="AD15" t="n">
-        <v>128183.1958458241</v>
+        <v>152283.5658699912</v>
       </c>
       <c r="AE15" t="n">
-        <v>175385.9035996675</v>
+        <v>208361.0931000027</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.307351440889448e-06</v>
+        <v>9.887193190748088e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>3</v>
+        <v>2.886458333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>158647.3191158259</v>
+        <v>188475.4028112286</v>
       </c>
     </row>
     <row r="16">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>127.0867737806488</v>
+        <v>151.187143804816</v>
       </c>
       <c r="AB16" t="n">
-        <v>173.8857305593678</v>
+        <v>206.860920059703</v>
       </c>
       <c r="AC16" t="n">
-        <v>157.2903204849858</v>
+        <v>187.1184041803886</v>
       </c>
       <c r="AD16" t="n">
-        <v>127086.7737806488</v>
+        <v>151187.143804816</v>
       </c>
       <c r="AE16" t="n">
-        <v>173885.7305593678</v>
+        <v>206860.920059703</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.334849909232747e-06</v>
+        <v>9.938420751611156e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>2.870833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>157290.3204849858</v>
+        <v>187118.4041803886</v>
       </c>
     </row>
     <row r="17">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>127.5499830216634</v>
+        <v>151.6503530458305</v>
       </c>
       <c r="AB17" t="n">
-        <v>174.5195138782731</v>
+        <v>207.4947033786082</v>
       </c>
       <c r="AC17" t="n">
-        <v>157.8636164134554</v>
+        <v>187.6917001088582</v>
       </c>
       <c r="AD17" t="n">
-        <v>127549.9830216634</v>
+        <v>151650.3530458305</v>
       </c>
       <c r="AE17" t="n">
-        <v>174519.5138782731</v>
+        <v>207494.7033786082</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.334849909232747e-06</v>
+        <v>9.938420751611156e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>2.870833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>157863.6164134555</v>
+        <v>187691.7001088582</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.0896260370329</v>
+        <v>286.3657356497915</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.2883918699833</v>
+        <v>391.8182330806705</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.2391137688259</v>
+        <v>354.4236508357944</v>
       </c>
       <c r="AD2" t="n">
-        <v>253089.6260370329</v>
+        <v>286365.7356497915</v>
       </c>
       <c r="AE2" t="n">
-        <v>346288.3918699833</v>
+        <v>391818.2330806705</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.521534133980835e-06</v>
+        <v>7.058905856981291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.70625</v>
       </c>
       <c r="AH2" t="n">
-        <v>313239.1137688259</v>
+        <v>354423.6508357945</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.3169134973363</v>
+        <v>176.3872882749618</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.1432090287011</v>
+        <v>241.3408694756498</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.9919975004172</v>
+        <v>218.3076356170014</v>
       </c>
       <c r="AD3" t="n">
-        <v>154316.9134973363</v>
+        <v>176387.2882749618</v>
       </c>
       <c r="AE3" t="n">
-        <v>211143.2090287011</v>
+        <v>241340.8694756498</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.822064561578112e-06</v>
+        <v>9.6658156591507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.436458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>190991.9975004172</v>
+        <v>218307.6356170014</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>135.7361811272524</v>
+        <v>146.8567541249123</v>
       </c>
       <c r="AB4" t="n">
-        <v>185.7202312759061</v>
+        <v>200.9358898563523</v>
       </c>
       <c r="AC4" t="n">
-        <v>167.9953530629675</v>
+        <v>181.7588505438117</v>
       </c>
       <c r="AD4" t="n">
-        <v>135736.1811272524</v>
+        <v>146856.7541249123</v>
       </c>
       <c r="AE4" t="n">
-        <v>185720.2312759061</v>
+        <v>200935.8898563523</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.28309663242544e-06</v>
+        <v>1.058995322571791e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.136458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>167995.3530629675</v>
+        <v>181758.8505438117</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.6618146358074</v>
+        <v>139.7823876334674</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.0407709432932</v>
+        <v>191.2564295237394</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.2396868392882</v>
+        <v>173.0031843201324</v>
       </c>
       <c r="AD5" t="n">
-        <v>128661.8146358074</v>
+        <v>139782.3876334674</v>
       </c>
       <c r="AE5" t="n">
-        <v>176040.7709432932</v>
+        <v>191256.4295237394</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.454909826530035e-06</v>
+        <v>1.093435231884855e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.0375</v>
       </c>
       <c r="AH5" t="n">
-        <v>159239.6868392882</v>
+        <v>173003.1843201324</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>110.2008880192014</v>
+        <v>132.3565141428476</v>
       </c>
       <c r="AB6" t="n">
-        <v>150.7817167078633</v>
+        <v>181.0960218074613</v>
       </c>
       <c r="AC6" t="n">
-        <v>136.3913212887745</v>
+        <v>163.8124716560709</v>
       </c>
       <c r="AD6" t="n">
-        <v>110200.8880192014</v>
+        <v>132356.5141428476</v>
       </c>
       <c r="AE6" t="n">
-        <v>150781.7167078633</v>
+        <v>181096.0218074613</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.625609416598766e-06</v>
+        <v>1.127651919563482e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.945833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>136391.3212887745</v>
+        <v>163812.4716560709</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.1099162368183</v>
+        <v>127.2655423604645</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.8160245173866</v>
+        <v>174.1303296169846</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.0904249845443</v>
+        <v>157.5115753518407</v>
       </c>
       <c r="AD7" t="n">
-        <v>105109.9162368183</v>
+        <v>127265.5423604645</v>
       </c>
       <c r="AE7" t="n">
-        <v>143816.0245173866</v>
+        <v>174130.3296169846</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.731242713714923e-06</v>
+        <v>1.148826086030032e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.891666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>130090.4249845443</v>
+        <v>157511.5753518407</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.8941326521201</v>
+        <v>126.0497587757663</v>
       </c>
       <c r="AB8" t="n">
-        <v>142.1525357802171</v>
+        <v>172.466840879815</v>
       </c>
       <c r="AC8" t="n">
-        <v>128.5856972777285</v>
+        <v>156.006847645025</v>
       </c>
       <c r="AD8" t="n">
-        <v>103894.1326521201</v>
+        <v>126049.7587757663</v>
       </c>
       <c r="AE8" t="n">
-        <v>142152.5357802171</v>
+        <v>172466.840879815</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.759719159774852e-06</v>
+        <v>1.154534182110623e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.877083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>128585.6972777285</v>
+        <v>156006.847645025</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.4602679065458</v>
+        <v>206.6655145742691</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.7549204791884</v>
+        <v>282.7688744794108</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.5369070159962</v>
+        <v>255.7818099677868</v>
       </c>
       <c r="AD2" t="n">
-        <v>185460.2679065458</v>
+        <v>206665.5145742691</v>
       </c>
       <c r="AE2" t="n">
-        <v>253754.9204791884</v>
+        <v>282768.8744794108</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.229879968663858e-06</v>
+        <v>8.849173422326922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.08125</v>
       </c>
       <c r="AH2" t="n">
-        <v>229536.9070159962</v>
+        <v>255781.8099677868</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.4693427222646</v>
+        <v>136.1146812376876</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.6726900292654</v>
+        <v>186.2381118252496</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.2884894370538</v>
+        <v>168.4638078195318</v>
       </c>
       <c r="AD3" t="n">
-        <v>125469.3427222646</v>
+        <v>136114.6812376876</v>
       </c>
       <c r="AE3" t="n">
-        <v>171672.6900292654</v>
+        <v>186238.1118252496</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.360554641580351e-06</v>
+        <v>1.1214615548107e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.219791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>155288.4894370538</v>
+        <v>168463.8078195318</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.53197109728112</v>
+        <v>120.7371282564533</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.1840338959036</v>
+        <v>165.1978654265777</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.1868208364071</v>
+        <v>149.4316130069711</v>
       </c>
       <c r="AD4" t="n">
-        <v>99531.97109728112</v>
+        <v>120737.1282564533</v>
       </c>
       <c r="AE4" t="n">
-        <v>136184.0338959036</v>
+        <v>165197.8654265777</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.829694316067614e-06</v>
+        <v>1.219608508615235e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.961458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>123186.8208364071</v>
+        <v>149431.6130069711</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.81555471283774</v>
+        <v>116.0207118720099</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.7308249251057</v>
+        <v>158.7446564557797</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.3494970726443</v>
+        <v>143.5942892432084</v>
       </c>
       <c r="AD5" t="n">
-        <v>94815.55471283774</v>
+        <v>116020.7118720099</v>
       </c>
       <c r="AE5" t="n">
-        <v>129730.8249251057</v>
+        <v>158744.6564557797</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.920340519509695e-06</v>
+        <v>1.238572261257793e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.915625</v>
       </c>
       <c r="AH5" t="n">
-        <v>117349.4970726443</v>
+        <v>143594.2892432084</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.22414814310766</v>
+        <v>116.4293053022799</v>
       </c>
       <c r="AB6" t="n">
-        <v>130.2898804822706</v>
+        <v>159.3037120129446</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.8551971520731</v>
+        <v>144.0999893226371</v>
       </c>
       <c r="AD6" t="n">
-        <v>95224.14814310765</v>
+        <v>116429.3053022799</v>
       </c>
       <c r="AE6" t="n">
-        <v>130289.8804822706</v>
+        <v>159303.7120129446</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.921997671309368e-06</v>
+        <v>1.238918947777766e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.914583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>117855.1971520731</v>
+        <v>144099.9893226371</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.4073606665418</v>
+        <v>157.9381310723295</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.0068128487986</v>
+        <v>216.0979186716487</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.0637064997813</v>
+        <v>195.4738366090222</v>
       </c>
       <c r="AD2" t="n">
-        <v>137407.3606665418</v>
+        <v>157938.1310723295</v>
       </c>
       <c r="AE2" t="n">
-        <v>188006.8128487986</v>
+        <v>216097.9186716487</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.814291948659152e-06</v>
+        <v>1.046557633036795e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.709375</v>
       </c>
       <c r="AH2" t="n">
-        <v>170063.7064997813</v>
+        <v>195473.8366090222</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.9067377627542</v>
+        <v>115.1722124741991</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.5380267655706</v>
+        <v>157.5837021465439</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.8389589479891</v>
+        <v>142.5441347838361</v>
       </c>
       <c r="AD3" t="n">
-        <v>104906.7377627542</v>
+        <v>115172.2124741991</v>
       </c>
       <c r="AE3" t="n">
-        <v>143538.0267655706</v>
+        <v>157583.7021465439</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.81986937961039e-06</v>
+        <v>1.26515566306791e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.06875</v>
       </c>
       <c r="AH3" t="n">
-        <v>129838.9589479891</v>
+        <v>142544.1347838361</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.69934306716384</v>
+        <v>108.1447726183799</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.9941102063989</v>
+        <v>147.9684489070513</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.5420407411229</v>
+        <v>133.8465478184249</v>
       </c>
       <c r="AD4" t="n">
-        <v>87699.34306716383</v>
+        <v>108144.7726183799</v>
       </c>
       <c r="AE4" t="n">
-        <v>119994.1102063989</v>
+        <v>147968.4489070513</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.055578375102711e-06</v>
+        <v>1.316395399053724e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.948958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>108542.0407411229</v>
+        <v>133846.5478184249</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.16956508320713</v>
+        <v>108.6149946344232</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.6374887134802</v>
+        <v>148.6118274141327</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.124016106476</v>
+        <v>134.428523183778</v>
       </c>
       <c r="AD5" t="n">
-        <v>88169.56508320713</v>
+        <v>108614.9946344232</v>
       </c>
       <c r="AE5" t="n">
-        <v>120637.4887134802</v>
+        <v>148611.8274141327</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.057806896514638e-06</v>
+        <v>1.31687984746668e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.947916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>109124.016106476</v>
+        <v>134428.523183778</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.34154030085887</v>
+        <v>94.85400715045034</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.7680604426252</v>
+        <v>129.783437246649</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.6238806390135</v>
+        <v>117.3970881480615</v>
       </c>
       <c r="AD2" t="n">
-        <v>85341.54030085886</v>
+        <v>94854.00715045034</v>
       </c>
       <c r="AE2" t="n">
-        <v>116768.0604426252</v>
+        <v>129783.437246649</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.016506427572839e-06</v>
+        <v>1.431042276419184e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.185416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>105623.8806390135</v>
+        <v>117397.0881480615</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.32212237799234</v>
+        <v>94.83458922758385</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.741491983901</v>
+        <v>129.7568687879248</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.5998478367008</v>
+        <v>117.3730553457488</v>
       </c>
       <c r="AD3" t="n">
-        <v>85322.12237799235</v>
+        <v>94834.58922758384</v>
       </c>
       <c r="AE3" t="n">
-        <v>116741.491983901</v>
+        <v>129756.8687879248</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.055880506334324e-06</v>
+        <v>1.440407507218991e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.164583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>105599.8478367008</v>
+        <v>117373.0553457488</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.9254565555007</v>
+        <v>389.3246332583693</v>
       </c>
       <c r="AB2" t="n">
-        <v>485.6246678652796</v>
+        <v>532.6911390147147</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.2773311427186</v>
+        <v>481.8518443438588</v>
       </c>
       <c r="AD2" t="n">
-        <v>354925.4565555007</v>
+        <v>389324.6332583693</v>
       </c>
       <c r="AE2" t="n">
-        <v>485624.6678652796</v>
+        <v>532691.1390147147</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.935988411250105e-06</v>
+        <v>5.697515091610501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.459374999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>439277.3311427186</v>
+        <v>481851.8443438588</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.8303344501235</v>
+        <v>206.8768470524303</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.5247736165234</v>
+        <v>283.0580288993618</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.5196022398725</v>
+        <v>256.0433678957286</v>
       </c>
       <c r="AD3" t="n">
-        <v>183830.3344501235</v>
+        <v>206876.8470524304</v>
       </c>
       <c r="AE3" t="n">
-        <v>251524.7736165234</v>
+        <v>283058.0288993618</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.381132961245441e-06</v>
+        <v>8.50193109393773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.658333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>227519.6022398725</v>
+        <v>256043.3678957286</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.2815420544885</v>
+        <v>169.8048878641929</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.5677887276617</v>
+        <v>232.3345388386293</v>
       </c>
       <c r="AC4" t="n">
-        <v>195.8988629263561</v>
+        <v>210.1608565355108</v>
       </c>
       <c r="AD4" t="n">
-        <v>158281.5420544885</v>
+        <v>169804.8878641929</v>
       </c>
       <c r="AE4" t="n">
-        <v>216567.7887276617</v>
+        <v>232334.5388386293</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.887672128471234e-06</v>
+        <v>9.484909956763669e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.279166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>195898.8629263561</v>
+        <v>210160.8565355108</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.426131506234</v>
+        <v>157.9494773159385</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.3466929917478</v>
+        <v>216.1134431027154</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.2258858010219</v>
+        <v>195.4878794101765</v>
       </c>
       <c r="AD5" t="n">
-        <v>146426.131506234</v>
+        <v>157949.4773159385</v>
       </c>
       <c r="AE5" t="n">
-        <v>200346.6929917478</v>
+        <v>216113.4431027154</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.160483168413922e-06</v>
+        <v>1.001432111222855e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.10625</v>
       </c>
       <c r="AH5" t="n">
-        <v>181225.8858010219</v>
+        <v>195487.8794101765</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>141.1564135687997</v>
+        <v>152.6797593785041</v>
       </c>
       <c r="AB6" t="n">
-        <v>193.1364324262062</v>
+        <v>208.9031825371738</v>
       </c>
       <c r="AC6" t="n">
-        <v>174.703762384189</v>
+        <v>188.9657559933437</v>
       </c>
       <c r="AD6" t="n">
-        <v>141156.4135687997</v>
+        <v>152679.7593785042</v>
       </c>
       <c r="AE6" t="n">
-        <v>193136.4324262062</v>
+        <v>208903.1825371738</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.269730680178901e-06</v>
+        <v>1.022632445141641e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.041666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>174703.762384189</v>
+        <v>188965.7559933437</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>123.8030638668154</v>
+        <v>146.7642356145506</v>
       </c>
       <c r="AB7" t="n">
-        <v>169.392813788206</v>
+        <v>200.8093019488468</v>
       </c>
       <c r="AC7" t="n">
-        <v>153.2262013846139</v>
+        <v>181.6443440085313</v>
       </c>
       <c r="AD7" t="n">
-        <v>123803.0638668154</v>
+        <v>146764.2356145506</v>
       </c>
       <c r="AE7" t="n">
-        <v>169392.813788206</v>
+        <v>200809.3019488468</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.401443173236398e-06</v>
+        <v>1.048192284345134e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.967708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>153226.2013846139</v>
+        <v>181644.3440085313</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.3883708795552</v>
+        <v>142.3495426272904</v>
       </c>
       <c r="AB8" t="n">
-        <v>163.3524360805306</v>
+        <v>194.7689242411714</v>
       </c>
       <c r="AC8" t="n">
-        <v>147.7623088476338</v>
+        <v>176.1804514715512</v>
       </c>
       <c r="AD8" t="n">
-        <v>119388.3708795552</v>
+        <v>142349.5426272904</v>
       </c>
       <c r="AE8" t="n">
-        <v>163352.4360805306</v>
+        <v>194768.9242411715</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.479147389350926e-06</v>
+        <v>1.063271395090186e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.924999999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>147762.3088476339</v>
+        <v>176180.4514715512</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>116.0683103812052</v>
+        <v>139.0294821289404</v>
       </c>
       <c r="AB9" t="n">
-        <v>158.8097828359586</v>
+        <v>190.2262709965995</v>
       </c>
       <c r="AC9" t="n">
-        <v>143.6532000530685</v>
+        <v>172.0713426769859</v>
       </c>
       <c r="AD9" t="n">
-        <v>116068.3103812052</v>
+        <v>139029.4821289404</v>
       </c>
       <c r="AE9" t="n">
-        <v>158809.7828359586</v>
+        <v>190226.2709965995</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.51792256254075e-06</v>
+        <v>1.070796020650093e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.905208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>143653.2000530685</v>
+        <v>172071.3426769859</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>113.2145692794904</v>
+        <v>136.1757410272256</v>
       </c>
       <c r="AB10" t="n">
-        <v>154.9051683624224</v>
+        <v>186.3216565230633</v>
       </c>
       <c r="AC10" t="n">
-        <v>140.1212365047245</v>
+        <v>168.5393791286419</v>
       </c>
       <c r="AD10" t="n">
-        <v>113214.5692794904</v>
+        <v>136175.7410272256</v>
       </c>
       <c r="AE10" t="n">
-        <v>154905.1683624224</v>
+        <v>186321.6565230633</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.574546624976683e-06</v>
+        <v>1.081784362737576e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="AH10" t="n">
-        <v>140121.2365047245</v>
+        <v>168539.3791286419</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>113.4964256071179</v>
+        <v>136.4575973548531</v>
       </c>
       <c r="AB11" t="n">
-        <v>155.2908166245059</v>
+        <v>186.7073047851467</v>
       </c>
       <c r="AC11" t="n">
-        <v>140.4700790379356</v>
+        <v>168.8882216618529</v>
       </c>
       <c r="AD11" t="n">
-        <v>113496.4256071179</v>
+        <v>136457.5973548531</v>
       </c>
       <c r="AE11" t="n">
-        <v>155290.8166245059</v>
+        <v>186707.3047851467</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.570546011869796e-06</v>
+        <v>1.081008012481395e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.877083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>140470.0790379356</v>
+        <v>168888.2216618529</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>554.0203404286257</v>
+        <v>601.882322390552</v>
       </c>
       <c r="AB2" t="n">
-        <v>758.035071426861</v>
+        <v>823.521946668789</v>
       </c>
       <c r="AC2" t="n">
-        <v>685.6892681187853</v>
+        <v>744.9261678990304</v>
       </c>
       <c r="AD2" t="n">
-        <v>554020.3404286257</v>
+        <v>601882.3223905519</v>
       </c>
       <c r="AE2" t="n">
-        <v>758035.071426861</v>
+        <v>823521.946668789</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.271109379879531e-06</v>
+        <v>4.261491992169764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.801041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>685689.2681187853</v>
+        <v>744926.1678990304</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.2729717034472</v>
+        <v>263.0627821066802</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.9649064603831</v>
+        <v>359.9341039892316</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.2868522298836</v>
+        <v>325.5824982751863</v>
       </c>
       <c r="AD3" t="n">
-        <v>227272.9717034472</v>
+        <v>263062.7821066802</v>
       </c>
       <c r="AE3" t="n">
-        <v>310964.9064603831</v>
+        <v>359934.1039892316</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.876617793102456e-06</v>
+        <v>7.27405550272759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>281286.8522298835</v>
+        <v>325582.4982751863</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.7617666876364</v>
+        <v>212.5648358952928</v>
       </c>
       <c r="AB4" t="n">
-        <v>258.2721767633208</v>
+        <v>290.8405861705199</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.6230427003815</v>
+        <v>263.0831688238176</v>
       </c>
       <c r="AD4" t="n">
-        <v>188761.7666876364</v>
+        <v>212564.8358952928</v>
       </c>
       <c r="AE4" t="n">
-        <v>258272.1767633208</v>
+        <v>290840.5861705199</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.442727058126943e-06</v>
+        <v>8.336298528522731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.476041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>233623.0427003815</v>
+        <v>263083.1688238176</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.0081901567035</v>
+        <v>184.9951103693788</v>
       </c>
       <c r="AB5" t="n">
-        <v>236.7174383549632</v>
+        <v>253.1184714155346</v>
       </c>
       <c r="AC5" t="n">
-        <v>214.1254582734454</v>
+        <v>228.9611997577155</v>
       </c>
       <c r="AD5" t="n">
-        <v>173008.1901567035</v>
+        <v>184995.1103693788</v>
       </c>
       <c r="AE5" t="n">
-        <v>236717.4383549632</v>
+        <v>253118.4714155346</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.73734704492727e-06</v>
+        <v>8.889121182334919e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.260416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>214125.4582734454</v>
+        <v>228961.1997577155</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.3592327711183</v>
+        <v>173.3461529837937</v>
       </c>
       <c r="AB6" t="n">
-        <v>220.7788209442841</v>
+        <v>237.1798540048555</v>
       </c>
       <c r="AC6" t="n">
-        <v>199.7080001384464</v>
+        <v>214.5437416227165</v>
       </c>
       <c r="AD6" t="n">
-        <v>161359.2327711183</v>
+        <v>173346.1529837937</v>
       </c>
       <c r="AE6" t="n">
-        <v>220778.8209442841</v>
+        <v>237179.8540048555</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.973991986514248e-06</v>
+        <v>9.333159911818693e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.105208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>199708.0001384464</v>
+        <v>214543.7416227165</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>158.9088743696941</v>
+        <v>170.8957945823694</v>
       </c>
       <c r="AB7" t="n">
-        <v>217.426132477274</v>
+        <v>233.8271655378453</v>
       </c>
       <c r="AC7" t="n">
-        <v>196.6752875531988</v>
+        <v>211.5110290374689</v>
       </c>
       <c r="AD7" t="n">
-        <v>158908.8743696941</v>
+        <v>170895.7945823694</v>
       </c>
       <c r="AE7" t="n">
-        <v>217426.132477274</v>
+        <v>233827.1655378453</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.02455334308139e-06</v>
+        <v>9.428032848381328e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.073958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>196675.2875531988</v>
+        <v>211511.0290374689</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>154.1114672651741</v>
+        <v>166.0983874778495</v>
       </c>
       <c r="AB8" t="n">
-        <v>210.8621084302088</v>
+        <v>227.2631414907802</v>
       </c>
       <c r="AC8" t="n">
-        <v>190.7377247485178</v>
+        <v>205.5734662327879</v>
       </c>
       <c r="AD8" t="n">
-        <v>154111.4672651741</v>
+        <v>166098.3874778495</v>
       </c>
       <c r="AE8" t="n">
-        <v>210862.1084302088</v>
+        <v>227263.1414907802</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.116038260975604e-06</v>
+        <v>9.599694437411083e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.01875</v>
       </c>
       <c r="AH8" t="n">
-        <v>190737.7247485179</v>
+        <v>205573.4662327879</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>137.8890353307373</v>
+        <v>161.7773558844143</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.6658613743369</v>
+        <v>221.3509154341853</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.6598563590229</v>
+        <v>200.2254947331711</v>
       </c>
       <c r="AD9" t="n">
-        <v>137889.0353307373</v>
+        <v>161777.3558844143</v>
       </c>
       <c r="AE9" t="n">
-        <v>188665.8613743369</v>
+        <v>221350.9154341852</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.195068181944187e-06</v>
+        <v>9.747985566994322e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.972916666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>170659.8563590229</v>
+        <v>200225.4947331711</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.594784437244</v>
+        <v>158.483104990921</v>
       </c>
       <c r="AB10" t="n">
-        <v>184.1585219697692</v>
+        <v>216.8435760296175</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.5826911011351</v>
+        <v>196.1483294752834</v>
       </c>
       <c r="AD10" t="n">
-        <v>134594.784437244</v>
+        <v>158483.104990921</v>
       </c>
       <c r="AE10" t="n">
-        <v>184158.5219697692</v>
+        <v>216843.5760296175</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.248446740196888e-06</v>
+        <v>9.848144678907956e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.942708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>166582.6911011351</v>
+        <v>196148.3294752834</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>132.4361027601052</v>
+        <v>156.3244233137822</v>
       </c>
       <c r="AB11" t="n">
-        <v>181.2049184647952</v>
+        <v>213.8899725246435</v>
       </c>
       <c r="AC11" t="n">
-        <v>163.9109753692663</v>
+        <v>193.4766137434145</v>
       </c>
       <c r="AD11" t="n">
-        <v>132436.1027601052</v>
+        <v>156324.4233137822</v>
       </c>
       <c r="AE11" t="n">
-        <v>181204.9184647952</v>
+        <v>213889.9725246435</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.273505007821074e-06</v>
+        <v>9.895163817556301e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.929166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>163910.9753692663</v>
+        <v>193476.6137434145</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>129.6299987776707</v>
+        <v>153.5183193313477</v>
       </c>
       <c r="AB12" t="n">
-        <v>177.3654831994596</v>
+        <v>210.0505372593079</v>
       </c>
       <c r="AC12" t="n">
-        <v>160.4379704169719</v>
+        <v>190.0036087911201</v>
       </c>
       <c r="AD12" t="n">
-        <v>129629.9987776707</v>
+        <v>153518.3193313477</v>
       </c>
       <c r="AE12" t="n">
-        <v>177365.4831994596</v>
+        <v>210050.5372593079</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.309535534641647e-06</v>
+        <v>9.962771218098004e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.909375</v>
       </c>
       <c r="AH12" t="n">
-        <v>160437.9704169719</v>
+        <v>190003.6087911201</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>126.7793060860774</v>
+        <v>150.6676266397544</v>
       </c>
       <c r="AB13" t="n">
-        <v>173.465039695138</v>
+        <v>206.1500937549864</v>
       </c>
       <c r="AC13" t="n">
-        <v>156.9097797663947</v>
+        <v>186.475418140543</v>
       </c>
       <c r="AD13" t="n">
-        <v>126779.3060860774</v>
+        <v>150667.6266397544</v>
       </c>
       <c r="AE13" t="n">
-        <v>173465.0396951381</v>
+        <v>206150.0937549864</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.343490228641282e-06</v>
+        <v>1.002648354206529e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.890625</v>
       </c>
       <c r="AH13" t="n">
-        <v>156909.7797663947</v>
+        <v>186475.418140543</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>124.7674847122926</v>
+        <v>148.6558052659697</v>
       </c>
       <c r="AB14" t="n">
-        <v>170.7123769362321</v>
+        <v>203.3974309960805</v>
       </c>
       <c r="AC14" t="n">
-        <v>154.4198272778114</v>
+        <v>183.9854656519597</v>
       </c>
       <c r="AD14" t="n">
-        <v>124767.4847122926</v>
+        <v>148655.8052659697</v>
       </c>
       <c r="AE14" t="n">
-        <v>170712.3769362321</v>
+        <v>203397.4309960805</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.362765819121424e-06</v>
+        <v>1.006265211025632e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2.880208333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>154419.8272778114</v>
+        <v>183985.4656519597</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>124.6056780208985</v>
+        <v>148.4939985745755</v>
       </c>
       <c r="AB15" t="n">
-        <v>170.4909858826594</v>
+        <v>203.1760399425077</v>
       </c>
       <c r="AC15" t="n">
-        <v>154.2195654756673</v>
+        <v>183.7852038498156</v>
       </c>
       <c r="AD15" t="n">
-        <v>124605.6780208985</v>
+        <v>148493.9985745755</v>
       </c>
       <c r="AE15" t="n">
-        <v>170490.9858826594</v>
+        <v>203176.0399425077</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.378927660370159e-06</v>
+        <v>1.009297806358572e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>3</v>
+        <v>2.871875</v>
       </c>
       <c r="AH15" t="n">
-        <v>154219.5654756673</v>
+        <v>183785.2038498156</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.44491356660048</v>
+        <v>96.59470729247481</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.3317914871195</v>
+        <v>132.1651399752361</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.08819594873161</v>
+        <v>119.5514845109737</v>
       </c>
       <c r="AD2" t="n">
-        <v>78444.91356660047</v>
+        <v>96594.70729247481</v>
       </c>
       <c r="AE2" t="n">
-        <v>107331.7914871195</v>
+        <v>132165.1399752361</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.841629139371958e-06</v>
+        <v>1.460947115906971e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.396875</v>
       </c>
       <c r="AH2" t="n">
-        <v>97088.19594873161</v>
+        <v>119551.4845109737</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.4297949276468</v>
+        <v>227.9724375303117</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.4463524596854</v>
+        <v>311.921946462953</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.4900689969614</v>
+        <v>282.1525536778226</v>
       </c>
       <c r="AD2" t="n">
-        <v>206429.7949276468</v>
+        <v>227972.4375303117</v>
       </c>
       <c r="AE2" t="n">
-        <v>282446.3524596854</v>
+        <v>311921.946462953</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.972592888362151e-06</v>
+        <v>8.180694820846017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.282291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>255490.0689969614</v>
+        <v>282152.5536778226</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.5026451988089</v>
+        <v>146.3166816817028</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.400697115732</v>
+        <v>200.1969389132387</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.7063147945713</v>
+        <v>181.0904240415846</v>
       </c>
       <c r="AD3" t="n">
-        <v>135502.645198809</v>
+        <v>146316.6816817028</v>
       </c>
       <c r="AE3" t="n">
-        <v>185400.6971157319</v>
+        <v>200196.9389132387</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.157659135365239e-06</v>
+        <v>1.062108214007484e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.297916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>167706.3147945713</v>
+        <v>181090.4240415845</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.2559661196961</v>
+        <v>131.0700026025899</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.5395181636915</v>
+        <v>179.3357599611982</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.8360974828584</v>
+        <v>162.2202067298716</v>
       </c>
       <c r="AD4" t="n">
-        <v>120255.9661196961</v>
+        <v>131070.0026025899</v>
       </c>
       <c r="AE4" t="n">
-        <v>164539.5181636915</v>
+        <v>179335.7599611983</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.587464063312343e-06</v>
+        <v>1.150617231841441e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.044791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>148836.0974828584</v>
+        <v>162220.2067298716</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.9531357126104</v>
+        <v>123.4956888067243</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.4967781368397</v>
+        <v>168.972249670559</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.183401416455</v>
+        <v>152.8457753160896</v>
       </c>
       <c r="AD5" t="n">
-        <v>101953.1357126104</v>
+        <v>123495.6888067243</v>
       </c>
       <c r="AE5" t="n">
-        <v>139496.7781368397</v>
+        <v>168972.249670559</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.771829475034333e-06</v>
+        <v>1.188583296102283e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.946875</v>
       </c>
       <c r="AH5" t="n">
-        <v>126183.401416455</v>
+        <v>152845.7753160896</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>98.24024997052162</v>
+        <v>119.7828030646355</v>
       </c>
       <c r="AB6" t="n">
-        <v>134.416644063558</v>
+        <v>163.8921155972772</v>
       </c>
       <c r="AC6" t="n">
-        <v>121.5881082091127</v>
+        <v>148.2504821087473</v>
       </c>
       <c r="AD6" t="n">
-        <v>98240.24997052162</v>
+        <v>119782.8030646355</v>
       </c>
       <c r="AE6" t="n">
-        <v>134416.644063558</v>
+        <v>163892.1155972772</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.856908642002586e-06</v>
+        <v>1.206103508219111e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.904166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>121588.1082091127</v>
+        <v>148250.4821087473</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.29919454390435</v>
+        <v>119.8417476380183</v>
       </c>
       <c r="AB7" t="n">
-        <v>134.4972946293113</v>
+        <v>163.9727661630305</v>
       </c>
       <c r="AC7" t="n">
-        <v>121.6610615980643</v>
+        <v>148.3234354976989</v>
       </c>
       <c r="AD7" t="n">
-        <v>98299.19454390435</v>
+        <v>119841.7476380183</v>
       </c>
       <c r="AE7" t="n">
-        <v>134497.2946293112</v>
+        <v>163972.7661630305</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.874218414936626e-06</v>
+        <v>1.209668081125798e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.895833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>121661.0615980643</v>
+        <v>148323.4354976988</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.4089525939616</v>
+        <v>314.1075337257107</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.6678997089628</v>
+        <v>429.7757850898969</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.0511738420178</v>
+        <v>388.7585873550192</v>
       </c>
       <c r="AD2" t="n">
-        <v>280408.9525939616</v>
+        <v>314107.5337257107</v>
       </c>
       <c r="AE2" t="n">
-        <v>383667.8997089628</v>
+        <v>429775.7850898969</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.312838494536412e-06</v>
+        <v>6.563342990278081e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.943750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>347051.1738420178</v>
+        <v>388758.5873550192</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.7176973870878</v>
+        <v>186.2403120446346</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.0057762799675</v>
+        <v>254.8222112820395</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.6269793859534</v>
+        <v>230.5023370825757</v>
       </c>
       <c r="AD3" t="n">
-        <v>163717.6973870878</v>
+        <v>186240.3120446346</v>
       </c>
       <c r="AE3" t="n">
-        <v>224005.7762799675</v>
+        <v>254822.2112820395</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.67265720932192e-06</v>
+        <v>9.257394222916072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.505208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>202626.9793859534</v>
+        <v>230502.3370825757</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.1420402322882</v>
+        <v>154.4034370696126</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.8532544268557</v>
+        <v>211.2615943974401</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.1612947061811</v>
+        <v>191.0990843357188</v>
       </c>
       <c r="AD4" t="n">
-        <v>143142.0402322882</v>
+        <v>154403.4370696126</v>
       </c>
       <c r="AE4" t="n">
-        <v>195853.2544268557</v>
+        <v>211261.5943974401</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.145897391019732e-06</v>
+        <v>1.0194970151953e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.182291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>177161.2947061811</v>
+        <v>191099.0843357188</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.7541078975502</v>
+        <v>143.0155047348747</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.2717830063581</v>
+        <v>195.6801229769425</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.0668970493183</v>
+        <v>177.004686678856</v>
       </c>
       <c r="AD5" t="n">
-        <v>131754.1078975502</v>
+        <v>143015.5047348747</v>
       </c>
       <c r="AE5" t="n">
-        <v>180271.7830063581</v>
+        <v>195680.1229769425</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.434400956938498e-06</v>
+        <v>1.076654883294395e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.013541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>163066.8970493183</v>
+        <v>177004.686678856</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.505130357411</v>
+        <v>138.9424041603862</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.4074591985404</v>
+        <v>190.1071270784148</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.1938350224497</v>
+        <v>171.9635696871332</v>
       </c>
       <c r="AD6" t="n">
-        <v>116505.130357411</v>
+        <v>138942.4041603862</v>
       </c>
       <c r="AE6" t="n">
-        <v>159407.4591985404</v>
+        <v>190107.1270784148</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.514741731970917e-06</v>
+        <v>1.092571869996649e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.969791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>144193.8350224497</v>
+        <v>171963.5696871332</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.2193886240046</v>
+        <v>133.6566624269798</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.1752741684298</v>
+        <v>182.8749420483043</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.6518795811752</v>
+        <v>165.4216142458586</v>
       </c>
       <c r="AD7" t="n">
-        <v>111219.3886240046</v>
+        <v>133656.6624269797</v>
       </c>
       <c r="AE7" t="n">
-        <v>152175.2741684298</v>
+        <v>182874.9420483042</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.613792002558832e-06</v>
+        <v>1.112195552232306e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.917708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>137651.8795811752</v>
+        <v>165421.6142458586</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>106.6794096753155</v>
+        <v>129.1166834782906</v>
       </c>
       <c r="AB8" t="n">
-        <v>145.963474681101</v>
+        <v>176.6631425609754</v>
       </c>
       <c r="AC8" t="n">
-        <v>132.0329255185997</v>
+        <v>159.8026601832831</v>
       </c>
       <c r="AD8" t="n">
-        <v>106679.4096753155</v>
+        <v>129116.6834782906</v>
       </c>
       <c r="AE8" t="n">
-        <v>145963.474681101</v>
+        <v>176663.1425609755</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.712370605191566e-06</v>
+        <v>1.131725788362078e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>132032.9255185997</v>
+        <v>159802.6601832832</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>107.1574025370402</v>
+        <v>129.5946763400154</v>
       </c>
       <c r="AB9" t="n">
-        <v>146.6174856020693</v>
+        <v>177.3171534819436</v>
       </c>
       <c r="AC9" t="n">
-        <v>132.624518555181</v>
+        <v>160.3942532198645</v>
       </c>
       <c r="AD9" t="n">
-        <v>107157.4025370402</v>
+        <v>129594.6763400154</v>
       </c>
       <c r="AE9" t="n">
-        <v>146617.4856020692</v>
+        <v>177317.1534819436</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.692560551073982e-06</v>
+        <v>1.127801051914947e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.877083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>132624.518555181</v>
+        <v>160394.2532198644</v>
       </c>
     </row>
   </sheetData>
